--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,25 +114,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>IlluminaHiSeq2000</t>
   </si>
   <si>
     <t>Illumina HiSeq2000</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,15 +472,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -48,16 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +91,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -337,43 +343,45 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>9</v>
@@ -381,66 +389,68 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -458,39 +468,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-platform-instrument-cs.xlsx
+++ b/CodeSystem-platform-instrument-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
